--- a/Lookup Table.xlsx
+++ b/Lookup Table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Python\Train ID Converter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Python\smrtlib\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8135" uniqueCount="3924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8136" uniqueCount="3925">
   <si>
     <t>Type</t>
   </si>
@@ -11853,6 +11853,9 @@
   </si>
   <si>
     <t>C339T/ CHD</t>
+  </si>
+  <si>
+    <t>Train ID</t>
   </si>
 </sst>
 </file>
@@ -11921,7 +11924,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 33" xfId="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -11934,6 +11937,9 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -11952,14 +11958,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table3" displayName="Table3" ref="A1:E393" totalsRowShown="0" headerRowCellStyle="Normal 33" dataCellStyle="Normal 33">
-  <autoFilter ref="A1:E393"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table3" displayName="Table3" ref="A1:F393" totalsRowShown="0" headerRowCellStyle="Normal 33" dataCellStyle="Normal 33">
+  <autoFilter ref="A1:F393"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Type" dataCellStyle="Normal 33"/>
     <tableColumn id="2" name="Name" dataCellStyle="Normal 33"/>
-    <tableColumn id="3" name="EMU" dataDxfId="4" dataCellStyle="Normal 33"/>
+    <tableColumn id="3" name="EMU" dataDxfId="5" dataCellStyle="Normal 33"/>
     <tableColumn id="4" name="EMU2" dataCellStyle="Normal 33"/>
     <tableColumn id="5" name="VOBC ID" dataCellStyle="Normal 33"/>
+    <tableColumn id="6" name="Train ID" dataDxfId="4" dataCellStyle="Normal 33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12242,11 +12249,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:E393"/>
+  <dimension ref="A1:F393"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12259,7 +12266,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12275,8 +12282,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="4" t="s">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -12292,8 +12302,11 @@
       <c r="E2" s="1">
         <v>1001</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -12309,8 +12322,11 @@
       <c r="E3" s="1">
         <v>1002</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -12326,8 +12342,11 @@
       <c r="E4" s="1">
         <v>1003</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -12343,8 +12362,11 @@
       <c r="E5" s="1">
         <v>1004</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -12360,8 +12382,11 @@
       <c r="E6" s="1">
         <v>1005</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -12377,8 +12402,11 @@
       <c r="E7" s="1">
         <v>1006</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -12394,8 +12422,11 @@
       <c r="E8" s="1">
         <v>1007</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -12411,8 +12442,11 @@
       <c r="E9" s="1">
         <v>1008</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -12428,8 +12462,11 @@
       <c r="E10" s="1">
         <v>1009</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -12445,8 +12482,11 @@
       <c r="E11" s="1">
         <v>1010</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -12462,8 +12502,11 @@
       <c r="E12" s="1">
         <v>1011</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -12479,8 +12522,11 @@
       <c r="E13" s="1">
         <v>1012</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -12496,8 +12542,11 @@
       <c r="E14" s="1">
         <v>1013</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -12513,8 +12562,11 @@
       <c r="E15" s="1">
         <v>1014</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -12530,8 +12582,11 @@
       <c r="E16" s="1">
         <v>1015</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -12547,8 +12602,11 @@
       <c r="E17" s="1">
         <v>1016</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -12564,8 +12622,11 @@
       <c r="E18" s="1">
         <v>1017</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -12581,8 +12642,11 @@
       <c r="E19" s="1">
         <v>1018</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
@@ -12598,8 +12662,11 @@
       <c r="E20" s="1">
         <v>1019</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -12615,8 +12682,11 @@
       <c r="E21" s="1">
         <v>1020</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
@@ -12632,8 +12702,11 @@
       <c r="E22" s="1">
         <v>1021</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -12649,8 +12722,11 @@
       <c r="E23" s="1">
         <v>1022</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -12666,8 +12742,11 @@
       <c r="E24" s="1">
         <v>1023</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -12683,8 +12762,11 @@
       <c r="E25" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -12700,8 +12782,11 @@
       <c r="E26" s="1">
         <v>1025</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -12717,8 +12802,11 @@
       <c r="E27" s="1">
         <v>1026</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -12734,8 +12822,11 @@
       <c r="E28" s="1">
         <v>1027</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -12751,8 +12842,11 @@
       <c r="E29" s="1">
         <v>1028</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -12768,8 +12862,11 @@
       <c r="E30" s="1">
         <v>1029</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -12785,8 +12882,11 @@
       <c r="E31" s="1">
         <v>1030</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -12802,8 +12902,11 @@
       <c r="E32" s="1">
         <v>1031</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>9</v>
       </c>
@@ -12819,8 +12922,11 @@
       <c r="E33" s="1">
         <v>1032</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -12836,8 +12942,11 @@
       <c r="E34" s="1">
         <v>1033</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -12853,8 +12962,11 @@
       <c r="E35" s="1">
         <v>1034</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -12870,8 +12982,11 @@
       <c r="E36" s="1">
         <v>1035</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -12887,8 +13002,11 @@
       <c r="E37" s="1">
         <v>1036</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -12904,8 +13022,11 @@
       <c r="E38" s="1">
         <v>1037</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -12921,8 +13042,11 @@
       <c r="E39" s="1">
         <v>1038</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -12938,8 +13062,11 @@
       <c r="E40" s="1">
         <v>1039</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -12955,8 +13082,11 @@
       <c r="E41" s="1">
         <v>1040</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -12972,8 +13102,11 @@
       <c r="E42" s="1">
         <v>1041</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>9</v>
       </c>
@@ -12989,8 +13122,11 @@
       <c r="E43" s="1">
         <v>1042</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -13006,8 +13142,11 @@
       <c r="E44" s="1">
         <v>1043</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -13023,8 +13162,11 @@
       <c r="E45" s="1">
         <v>1044</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -13040,8 +13182,11 @@
       <c r="E46" s="1">
         <v>1045</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -13057,8 +13202,11 @@
       <c r="E47" s="1">
         <v>1046</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>9</v>
       </c>
@@ -13074,8 +13222,11 @@
       <c r="E48" s="1">
         <v>1047</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>9</v>
       </c>
@@ -13091,8 +13242,11 @@
       <c r="E49" s="1">
         <v>1048</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
@@ -13108,8 +13262,11 @@
       <c r="E50" s="1">
         <v>1049</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>9</v>
       </c>
@@ -13125,8 +13282,11 @@
       <c r="E51" s="1">
         <v>1050</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>9</v>
       </c>
@@ -13142,8 +13302,11 @@
       <c r="E52" s="1">
         <v>1051</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -13159,8 +13322,11 @@
       <c r="E53" s="1">
         <v>1052</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>9</v>
       </c>
@@ -13176,8 +13342,11 @@
       <c r="E54" s="1">
         <v>1053</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
@@ -13193,8 +13362,11 @@
       <c r="E55" s="1">
         <v>1054</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
@@ -13210,8 +13382,11 @@
       <c r="E56" s="1">
         <v>1055</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>9</v>
       </c>
@@ -13227,8 +13402,11 @@
       <c r="E57" s="1">
         <v>1056</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>9</v>
       </c>
@@ -13244,8 +13422,11 @@
       <c r="E58" s="1">
         <v>1057</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>9</v>
       </c>
@@ -13261,8 +13442,11 @@
       <c r="E59" s="1">
         <v>1058</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" s="4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
@@ -13278,8 +13462,11 @@
       <c r="E60" s="1">
         <v>1059</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" s="4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>9</v>
       </c>
@@ -13295,8 +13482,11 @@
       <c r="E61" s="1">
         <v>1060</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>9</v>
       </c>
@@ -13312,8 +13502,11 @@
       <c r="E62" s="1">
         <v>1061</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>9</v>
       </c>
@@ -13329,8 +13522,11 @@
       <c r="E63" s="1">
         <v>1062</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>9</v>
       </c>
@@ -13346,8 +13542,11 @@
       <c r="E64" s="1">
         <v>1063</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" s="4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>9</v>
       </c>
@@ -13363,8 +13562,11 @@
       <c r="E65" s="1">
         <v>1064</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>9</v>
       </c>
@@ -13380,8 +13582,11 @@
       <c r="E66" s="1">
         <v>1065</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>9</v>
       </c>
@@ -13397,8 +13602,11 @@
       <c r="E67" s="1">
         <v>1066</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>9</v>
       </c>
@@ -13414,8 +13622,11 @@
       <c r="E68" s="1">
         <v>1067</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" s="4">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -13431,8 +13642,11 @@
       <c r="E69" s="1">
         <v>1068</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>9</v>
       </c>
@@ -13448,8 +13662,11 @@
       <c r="E70" s="1">
         <v>1069</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>9</v>
       </c>
@@ -13465,8 +13682,11 @@
       <c r="E71" s="1">
         <v>1070</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>9</v>
       </c>
@@ -13482,8 +13702,11 @@
       <c r="E72" s="1">
         <v>1071</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
@@ -13499,8 +13722,11 @@
       <c r="E73" s="1">
         <v>1072</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" s="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>9</v>
       </c>
@@ -13516,8 +13742,11 @@
       <c r="E74" s="1">
         <v>1073</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" s="4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>9</v>
       </c>
@@ -13533,8 +13762,11 @@
       <c r="E75" s="1">
         <v>1074</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>9</v>
       </c>
@@ -13550,8 +13782,11 @@
       <c r="E76" s="1">
         <v>1075</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>9</v>
       </c>
@@ -13567,8 +13802,11 @@
       <c r="E77" s="1">
         <v>1076</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>9</v>
       </c>
@@ -13584,8 +13822,11 @@
       <c r="E78" s="1">
         <v>1077</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>9</v>
       </c>
@@ -13601,8 +13842,11 @@
       <c r="E79" s="1">
         <v>1078</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>9</v>
       </c>
@@ -13618,8 +13862,11 @@
       <c r="E80" s="1">
         <v>1079</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
@@ -13635,8 +13882,11 @@
       <c r="E81" s="1">
         <v>1080</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>9</v>
       </c>
@@ -13652,8 +13902,11 @@
       <c r="E82" s="1">
         <v>1081</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" s="4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>9</v>
       </c>
@@ -13669,8 +13922,11 @@
       <c r="E83" s="1">
         <v>1082</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>9</v>
       </c>
@@ -13686,8 +13942,11 @@
       <c r="E84" s="1">
         <v>1083</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
@@ -13703,8 +13962,11 @@
       <c r="E85" s="1">
         <v>1084</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>9</v>
       </c>
@@ -13720,8 +13982,11 @@
       <c r="E86" s="1">
         <v>1085</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
@@ -13737,8 +14002,11 @@
       <c r="E87" s="1">
         <v>1086</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" s="4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>9</v>
       </c>
@@ -13754,8 +14022,11 @@
       <c r="E88" s="1">
         <v>1087</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" s="4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
@@ -13771,8 +14042,11 @@
       <c r="E89" s="1">
         <v>1088</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>9</v>
       </c>
@@ -13788,8 +14062,11 @@
       <c r="E90" s="1">
         <v>1089</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>9</v>
       </c>
@@ -13805,8 +14082,11 @@
       <c r="E91" s="1">
         <v>1090</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>9</v>
       </c>
@@ -13822,8 +14102,11 @@
       <c r="E92" s="1">
         <v>1091</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>9</v>
       </c>
@@ -13839,8 +14122,11 @@
       <c r="E93" s="1">
         <v>1092</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" s="4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>9</v>
       </c>
@@ -13856,8 +14142,11 @@
       <c r="E94" s="1">
         <v>1093</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>9</v>
       </c>
@@ -13873,8 +14162,11 @@
       <c r="E95" s="1">
         <v>1094</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" s="4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>9</v>
       </c>
@@ -13890,8 +14182,11 @@
       <c r="E96" s="1">
         <v>1095</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>9</v>
       </c>
@@ -13907,8 +14202,11 @@
       <c r="E97" s="1">
         <v>1096</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
@@ -13924,8 +14222,11 @@
       <c r="E98" s="1">
         <v>1097</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" s="4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>9</v>
       </c>
@@ -13941,8 +14242,11 @@
       <c r="E99" s="1">
         <v>1098</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>9</v>
       </c>
@@ -13958,8 +14262,11 @@
       <c r="E100" s="1">
         <v>1099</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" s="4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
@@ -13975,8 +14282,11 @@
       <c r="E101" s="1">
         <v>1100</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>9</v>
       </c>
@@ -13992,8 +14302,11 @@
       <c r="E102" s="1">
         <v>1101</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>9</v>
       </c>
@@ -14009,8 +14322,11 @@
       <c r="E103" s="1">
         <v>1102</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" s="4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>9</v>
       </c>
@@ -14026,8 +14342,11 @@
       <c r="E104" s="1">
         <v>1103</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" s="4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>9</v>
       </c>
@@ -14043,8 +14362,11 @@
       <c r="E105" s="1">
         <v>1104</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>9</v>
       </c>
@@ -14060,8 +14382,11 @@
       <c r="E106" s="1">
         <v>1105</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>9</v>
       </c>
@@ -14077,8 +14402,11 @@
       <c r="E107" s="1">
         <v>1106</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>9</v>
       </c>
@@ -14094,8 +14422,11 @@
       <c r="E108" s="1">
         <v>1107</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>9</v>
       </c>
@@ -14111,8 +14442,11 @@
       <c r="E109" s="1">
         <v>1108</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" s="4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>9</v>
       </c>
@@ -14128,8 +14462,11 @@
       <c r="E110" s="1">
         <v>1109</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>9</v>
       </c>
@@ -14145,8 +14482,11 @@
       <c r="E111" s="1">
         <v>1110</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" s="4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>9</v>
       </c>
@@ -14162,8 +14502,11 @@
       <c r="E112" s="1">
         <v>1111</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>9</v>
       </c>
@@ -14179,8 +14522,11 @@
       <c r="E113" s="1">
         <v>1112</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" s="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>9</v>
       </c>
@@ -14196,8 +14542,11 @@
       <c r="E114" s="1">
         <v>1113</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" s="4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>9</v>
       </c>
@@ -14213,8 +14562,11 @@
       <c r="E115" s="1">
         <v>1114</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" s="4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>9</v>
       </c>
@@ -14230,8 +14582,11 @@
       <c r="E116" s="1">
         <v>1115</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" s="4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>9</v>
       </c>
@@ -14247,8 +14602,11 @@
       <c r="E117" s="1">
         <v>1116</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" s="4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>9</v>
       </c>
@@ -14264,8 +14622,11 @@
       <c r="E118" s="1">
         <v>1117</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" s="4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>9</v>
       </c>
@@ -14281,8 +14642,11 @@
       <c r="E119" s="1">
         <v>1118</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" s="4">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>9</v>
       </c>
@@ -14298,8 +14662,11 @@
       <c r="E120" s="1">
         <v>1119</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>9</v>
       </c>
@@ -14315,8 +14682,11 @@
       <c r="E121" s="1">
         <v>1120</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>9</v>
       </c>
@@ -14332,8 +14702,11 @@
       <c r="E122" s="1">
         <v>1121</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122" s="4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>9</v>
       </c>
@@ -14349,8 +14722,11 @@
       <c r="E123" s="1">
         <v>1122</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" s="4">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>9</v>
       </c>
@@ -14366,8 +14742,11 @@
       <c r="E124" s="1">
         <v>1123</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>9</v>
       </c>
@@ -14383,8 +14762,11 @@
       <c r="E125" s="1">
         <v>1124</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" s="4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>9</v>
       </c>
@@ -14400,8 +14782,11 @@
       <c r="E126" s="1">
         <v>1125</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" s="4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>9</v>
       </c>
@@ -14417,8 +14802,11 @@
       <c r="E127" s="1">
         <v>1126</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" s="4">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>9</v>
       </c>
@@ -14434,8 +14822,11 @@
       <c r="E128" s="1">
         <v>1127</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>9</v>
       </c>
@@ -14451,8 +14842,11 @@
       <c r="E129" s="1">
         <v>1128</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" s="4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>9</v>
       </c>
@@ -14468,8 +14862,11 @@
       <c r="E130" s="1">
         <v>1129</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" s="4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>9</v>
       </c>
@@ -14485,8 +14882,11 @@
       <c r="E131" s="1">
         <v>1130</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>9</v>
       </c>
@@ -14502,8 +14902,11 @@
       <c r="E132" s="1">
         <v>1131</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" s="4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>9</v>
       </c>
@@ -14519,8 +14922,11 @@
       <c r="E133" s="1">
         <v>1132</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" s="4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>409</v>
       </c>
@@ -14536,8 +14942,11 @@
       <c r="E134" s="1">
         <v>1133</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" s="4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>409</v>
       </c>
@@ -14553,8 +14962,11 @@
       <c r="E135" s="1">
         <v>1134</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" s="4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>409</v>
       </c>
@@ -14570,8 +14982,11 @@
       <c r="E136" s="1">
         <v>1135</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136" s="4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>409</v>
       </c>
@@ -14587,8 +15002,11 @@
       <c r="E137" s="1">
         <v>1136</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>409</v>
       </c>
@@ -14604,8 +15022,11 @@
       <c r="E138" s="1">
         <v>1137</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138" s="4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>409</v>
       </c>
@@ -14621,8 +15042,11 @@
       <c r="E139" s="1">
         <v>1138</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139" s="4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>409</v>
       </c>
@@ -14638,8 +15062,11 @@
       <c r="E140" s="1">
         <v>1139</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140" s="4">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>409</v>
       </c>
@@ -14655,8 +15082,11 @@
       <c r="E141" s="1">
         <v>1140</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>409</v>
       </c>
@@ -14672,8 +15102,11 @@
       <c r="E142" s="1">
         <v>1141</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142" s="4">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>409</v>
       </c>
@@ -14689,8 +15122,11 @@
       <c r="E143" s="1">
         <v>1142</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143" s="4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>409</v>
       </c>
@@ -14706,8 +15142,11 @@
       <c r="E144" s="1">
         <v>1143</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F144" s="4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>409</v>
       </c>
@@ -14723,8 +15162,11 @@
       <c r="E145" s="1">
         <v>1144</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F145" s="4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>409</v>
       </c>
@@ -14740,8 +15182,11 @@
       <c r="E146" s="1">
         <v>1145</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F146" s="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>409</v>
       </c>
@@ -14757,8 +15202,11 @@
       <c r="E147" s="1">
         <v>1146</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F147" s="4">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>409</v>
       </c>
@@ -14774,8 +15222,11 @@
       <c r="E148" s="1">
         <v>1147</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F148" s="4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>409</v>
       </c>
@@ -14791,8 +15242,11 @@
       <c r="E149" s="1">
         <v>1148</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F149" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>409</v>
       </c>
@@ -14808,8 +15262,11 @@
       <c r="E150" s="1">
         <v>1149</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F150" s="4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>409</v>
       </c>
@@ -14825,8 +15282,11 @@
       <c r="E151" s="1">
         <v>1150</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F151" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>409</v>
       </c>
@@ -14842,8 +15302,11 @@
       <c r="E152" s="1">
         <v>1151</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F152" s="4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>409</v>
       </c>
@@ -14859,8 +15322,11 @@
       <c r="E153" s="1">
         <v>1152</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F153" s="4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>409</v>
       </c>
@@ -14876,8 +15342,11 @@
       <c r="E154" s="1">
         <v>1153</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F154" s="4">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>409</v>
       </c>
@@ -14893,8 +15362,11 @@
       <c r="E155" s="1">
         <v>1154</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F155" s="4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>409</v>
       </c>
@@ -14910,8 +15382,11 @@
       <c r="E156" s="1">
         <v>1155</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F156" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>409</v>
       </c>
@@ -14927,8 +15402,11 @@
       <c r="E157" s="1">
         <v>1156</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F157" s="4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>409</v>
       </c>
@@ -14944,8 +15422,11 @@
       <c r="E158" s="1">
         <v>1157</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F158" s="4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>409</v>
       </c>
@@ -14961,8 +15442,11 @@
       <c r="E159" s="1">
         <v>1158</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F159" s="4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>409</v>
       </c>
@@ -14978,8 +15462,11 @@
       <c r="E160" s="1">
         <v>1159</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F160" s="4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>409</v>
       </c>
@@ -14995,8 +15482,11 @@
       <c r="E161" s="1">
         <v>1160</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>409</v>
       </c>
@@ -15012,8 +15502,11 @@
       <c r="E162" s="1">
         <v>1161</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162" s="4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>409</v>
       </c>
@@ -15029,8 +15522,11 @@
       <c r="E163" s="1">
         <v>1162</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163" s="4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>409</v>
       </c>
@@ -15046,8 +15542,11 @@
       <c r="E164" s="1">
         <v>1163</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164" s="4">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>409</v>
       </c>
@@ -15063,8 +15562,11 @@
       <c r="E165" s="1">
         <v>1164</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F165" s="4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>409</v>
       </c>
@@ -15080,8 +15582,11 @@
       <c r="E166" s="1">
         <v>1165</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166" s="4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>409</v>
       </c>
@@ -15097,8 +15602,11 @@
       <c r="E167" s="1">
         <v>1166</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167" s="4">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>409</v>
       </c>
@@ -15114,8 +15622,11 @@
       <c r="E168" s="1">
         <v>1167</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168" s="4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>409</v>
       </c>
@@ -15131,8 +15642,11 @@
       <c r="E169" s="1">
         <v>1168</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F169" s="4">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>409</v>
       </c>
@@ -15148,8 +15662,11 @@
       <c r="E170" s="1">
         <v>1169</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170" s="4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>409</v>
       </c>
@@ -15165,8 +15682,11 @@
       <c r="E171" s="1">
         <v>1170</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F171" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>525</v>
       </c>
@@ -15182,8 +15702,11 @@
       <c r="E172" s="1">
         <v>1171</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F172" s="4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>525</v>
       </c>
@@ -15199,8 +15722,11 @@
       <c r="E173" s="1">
         <v>1172</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173" s="4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>525</v>
       </c>
@@ -15216,8 +15742,11 @@
       <c r="E174" s="1">
         <v>1173</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F174" s="4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>525</v>
       </c>
@@ -15233,8 +15762,11 @@
       <c r="E175" s="1">
         <v>1174</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F175" s="4">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>525</v>
       </c>
@@ -15250,8 +15782,11 @@
       <c r="E176" s="1">
         <v>1175</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F176" s="4">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>525</v>
       </c>
@@ -15267,8 +15802,11 @@
       <c r="E177" s="1">
         <v>1176</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F177" s="4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>525</v>
       </c>
@@ -15284,8 +15822,11 @@
       <c r="E178" s="1">
         <v>1177</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F178" s="4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>525</v>
       </c>
@@ -15301,8 +15842,11 @@
       <c r="E179" s="1">
         <v>1178</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F179" s="4">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>525</v>
       </c>
@@ -15318,8 +15862,11 @@
       <c r="E180" s="1">
         <v>1179</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F180" s="4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>525</v>
       </c>
@@ -15335,8 +15882,11 @@
       <c r="E181" s="1">
         <v>1180</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F181" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>525</v>
       </c>
@@ -15352,8 +15902,11 @@
       <c r="E182" s="1">
         <v>1181</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F182" s="4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>525</v>
       </c>
@@ -15369,8 +15922,11 @@
       <c r="E183" s="1">
         <v>1182</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F183" s="4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>525</v>
       </c>
@@ -15386,8 +15942,11 @@
       <c r="E184" s="1">
         <v>1183</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F184" s="4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>525</v>
       </c>
@@ -15403,8 +15962,11 @@
       <c r="E185" s="1">
         <v>1184</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F185" s="4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>525</v>
       </c>
@@ -15420,8 +15982,11 @@
       <c r="E186" s="1">
         <v>1185</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F186" s="4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>525</v>
       </c>
@@ -15437,8 +16002,11 @@
       <c r="E187" s="1">
         <v>1186</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F187" s="4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>525</v>
       </c>
@@ -15454,8 +16022,11 @@
       <c r="E188" s="5">
         <v>1187</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F188" s="4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>525</v>
       </c>
@@ -15471,8 +16042,11 @@
       <c r="E189" s="1">
         <v>1188</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F189" s="4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>525</v>
       </c>
@@ -15488,8 +16062,11 @@
       <c r="E190" s="1">
         <v>1189</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F190" s="4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>525</v>
       </c>
@@ -15505,8 +16082,11 @@
       <c r="E191" s="1">
         <v>1190</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F191" s="4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>525</v>
       </c>
@@ -15522,8 +16102,11 @@
       <c r="E192" s="1">
         <v>1191</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F192" s="4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>525</v>
       </c>
@@ -15539,8 +16122,11 @@
       <c r="E193" s="1">
         <v>1192</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F193" s="4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>525</v>
       </c>
@@ -15556,8 +16142,11 @@
       <c r="E194" s="1">
         <v>1193</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F194" s="4">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>525</v>
       </c>
@@ -15573,8 +16162,11 @@
       <c r="E195" s="1">
         <v>1194</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F195" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>525</v>
       </c>
@@ -15590,8 +16182,11 @@
       <c r="E196" s="1">
         <v>1195</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F196" s="4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>525</v>
       </c>
@@ -15607,8 +16202,11 @@
       <c r="E197" s="1">
         <v>1196</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F197" s="4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>525</v>
       </c>
@@ -15624,8 +16222,11 @@
       <c r="E198" s="1">
         <v>1197</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F198" s="4">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>525</v>
       </c>
@@ -15641,8 +16242,11 @@
       <c r="E199" s="1">
         <v>1198</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F199" s="4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>525</v>
       </c>
@@ -15658,8 +16262,11 @@
       <c r="E200" s="1">
         <v>1199</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F200" s="4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>525</v>
       </c>
@@ -15675,8 +16282,11 @@
       <c r="E201" s="1">
         <v>1200</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F201" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>525</v>
       </c>
@@ -15692,8 +16302,11 @@
       <c r="E202" s="1">
         <v>1201</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F202" s="4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>525</v>
       </c>
@@ -15709,8 +16322,11 @@
       <c r="E203" s="1">
         <v>1202</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F203" s="4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>525</v>
       </c>
@@ -15726,8 +16342,11 @@
       <c r="E204" s="1">
         <v>1203</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F204" s="4">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>525</v>
       </c>
@@ -15743,8 +16362,11 @@
       <c r="E205" s="1">
         <v>1204</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F205" s="4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>525</v>
       </c>
@@ -15760,8 +16382,11 @@
       <c r="E206" s="1">
         <v>1205</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F206" s="4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>525</v>
       </c>
@@ -15777,8 +16402,11 @@
       <c r="E207" s="1">
         <v>1206</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F207" s="4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>525</v>
       </c>
@@ -15794,8 +16422,11 @@
       <c r="E208" s="1">
         <v>1207</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F208" s="4">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>525</v>
       </c>
@@ -15811,8 +16442,11 @@
       <c r="E209" s="1">
         <v>1208</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F209" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>525</v>
       </c>
@@ -15828,8 +16462,11 @@
       <c r="E210" s="1">
         <v>1209</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F210" s="4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>525</v>
       </c>
@@ -15845,8 +16482,11 @@
       <c r="E211" s="1">
         <v>1210</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F211" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>525</v>
       </c>
@@ -15862,8 +16502,11 @@
       <c r="E212" s="1">
         <v>1211</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F212" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>525</v>
       </c>
@@ -15879,8 +16522,11 @@
       <c r="E213" s="1">
         <v>1212</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F213" s="4">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>652</v>
       </c>
@@ -15896,8 +16542,11 @@
       <c r="E214" s="1">
         <v>1213</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F214" s="4">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>652</v>
       </c>
@@ -15913,8 +16562,11 @@
       <c r="E215" s="1">
         <v>1214</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F215" s="4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>652</v>
       </c>
@@ -15930,8 +16582,11 @@
       <c r="E216" s="1">
         <v>1215</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F216" s="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>652</v>
       </c>
@@ -15947,8 +16602,11 @@
       <c r="E217" s="1">
         <v>1216</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F217" s="4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>652</v>
       </c>
@@ -15964,8 +16622,11 @@
       <c r="E218" s="1">
         <v>1217</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F218" s="4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>652</v>
       </c>
@@ -15981,8 +16642,11 @@
       <c r="E219" s="1">
         <v>1218</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F219" s="4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>652</v>
       </c>
@@ -15998,8 +16662,11 @@
       <c r="E220" s="1">
         <v>1219</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F220" s="4">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>652</v>
       </c>
@@ -16015,8 +16682,11 @@
       <c r="E221" s="1">
         <v>1220</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F221" s="4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>652</v>
       </c>
@@ -16032,8 +16702,11 @@
       <c r="E222" s="1">
         <v>1221</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F222" s="4">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>652</v>
       </c>
@@ -16049,8 +16722,11 @@
       <c r="E223" s="1">
         <v>1222</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F223" s="4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>652</v>
       </c>
@@ -16066,8 +16742,11 @@
       <c r="E224" s="1">
         <v>1223</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F224" s="4">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>652</v>
       </c>
@@ -16083,8 +16762,11 @@
       <c r="E225" s="1">
         <v>1224</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F225" s="4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>652</v>
       </c>
@@ -16100,8 +16782,11 @@
       <c r="E226" s="1">
         <v>1225</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F226" s="4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>652</v>
       </c>
@@ -16117,8 +16802,11 @@
       <c r="E227" s="1">
         <v>1226</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F227" s="4">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>652</v>
       </c>
@@ -16134,8 +16822,11 @@
       <c r="E228" s="1">
         <v>1227</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F228" s="4">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>652</v>
       </c>
@@ -16151,8 +16842,11 @@
       <c r="E229" s="1">
         <v>1228</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F229" s="4">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>652</v>
       </c>
@@ -16168,8 +16862,11 @@
       <c r="E230" s="1">
         <v>1229</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F230" s="4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>652</v>
       </c>
@@ -16185,8 +16882,11 @@
       <c r="E231" s="1">
         <v>1230</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F231" s="4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>652</v>
       </c>
@@ -16202,8 +16902,11 @@
       <c r="E232" s="1">
         <v>1231</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F232" s="4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>652</v>
       </c>
@@ -16219,8 +16922,11 @@
       <c r="E233" s="1">
         <v>1232</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F233" s="4">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>652</v>
       </c>
@@ -16236,8 +16942,11 @@
       <c r="E234" s="1">
         <v>1233</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F234" s="4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>652</v>
       </c>
@@ -16253,8 +16962,11 @@
       <c r="E235" s="1">
         <v>1234</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F235" s="4">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>652</v>
       </c>
@@ -16270,8 +16982,11 @@
       <c r="E236" s="1">
         <v>1235</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F236" s="4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>652</v>
       </c>
@@ -16287,8 +17002,11 @@
       <c r="E237" s="1">
         <v>1236</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F237" s="4">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>652</v>
       </c>
@@ -16304,8 +17022,11 @@
       <c r="E238" s="1">
         <v>1237</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F238" s="4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>652</v>
       </c>
@@ -16321,8 +17042,11 @@
       <c r="E239" s="1">
         <v>1238</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F239" s="4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>652</v>
       </c>
@@ -16338,8 +17062,11 @@
       <c r="E240" s="1">
         <v>1239</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F240" s="4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>652</v>
       </c>
@@ -16355,8 +17082,11 @@
       <c r="E241" s="1">
         <v>1240</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F241" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>652</v>
       </c>
@@ -16372,8 +17102,11 @@
       <c r="E242" s="1">
         <v>1241</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F242" s="4">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>652</v>
       </c>
@@ -16389,8 +17122,11 @@
       <c r="E243" s="1">
         <v>1242</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F243" s="4">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>652</v>
       </c>
@@ -16406,8 +17142,11 @@
       <c r="E244" s="1">
         <v>1243</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F244" s="4">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>652</v>
       </c>
@@ -16423,8 +17162,11 @@
       <c r="E245" s="1">
         <v>1244</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F245" s="4">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>652</v>
       </c>
@@ -16440,8 +17182,11 @@
       <c r="E246" s="1">
         <v>1245</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F246" s="4">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>652</v>
       </c>
@@ -16457,8 +17202,11 @@
       <c r="E247" s="1">
         <v>1246</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F247" s="4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>652</v>
       </c>
@@ -16474,8 +17222,11 @@
       <c r="E248" s="1">
         <v>1247</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F248" s="4">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>652</v>
       </c>
@@ -16491,8 +17242,11 @@
       <c r="E249" s="1">
         <v>1248</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F249" s="4">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>652</v>
       </c>
@@ -16508,8 +17262,11 @@
       <c r="E250" s="1">
         <v>1249</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F250" s="4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>652</v>
       </c>
@@ -16525,8 +17282,11 @@
       <c r="E251" s="1">
         <v>1250</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F251" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>652</v>
       </c>
@@ -16542,8 +17302,11 @@
       <c r="E252" s="1">
         <v>1251</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F252" s="4">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>652</v>
       </c>
@@ -16559,8 +17322,11 @@
       <c r="E253" s="1">
         <v>1252</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F253" s="4">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>652</v>
       </c>
@@ -16576,8 +17342,11 @@
       <c r="E254" s="1">
         <v>1253</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F254" s="4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>652</v>
       </c>
@@ -16593,8 +17362,11 @@
       <c r="E255" s="1">
         <v>1254</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F255" s="4">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>652</v>
       </c>
@@ -16610,8 +17382,11 @@
       <c r="E256" s="1">
         <v>1255</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F256" s="4">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>652</v>
       </c>
@@ -16627,8 +17402,11 @@
       <c r="E257" s="1">
         <v>1256</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F257" s="4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>652</v>
       </c>
@@ -16644,8 +17422,11 @@
       <c r="E258" s="1">
         <v>1257</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F258" s="4">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>652</v>
       </c>
@@ -16661,8 +17442,11 @@
       <c r="E259" s="1">
         <v>1258</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F259" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>652</v>
       </c>
@@ -16678,8 +17462,11 @@
       <c r="E260" s="1">
         <v>1259</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F260" s="4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>652</v>
       </c>
@@ -16695,8 +17482,11 @@
       <c r="E261" s="1">
         <v>1260</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F261" s="4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>652</v>
       </c>
@@ -16712,8 +17502,11 @@
       <c r="E262" s="1">
         <v>1261</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F262" s="4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>652</v>
       </c>
@@ -16729,8 +17522,11 @@
       <c r="E263" s="1">
         <v>1262</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F263" s="4">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>652</v>
       </c>
@@ -16746,8 +17542,11 @@
       <c r="E264" s="1">
         <v>1263</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F264" s="4">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>652</v>
       </c>
@@ -16763,8 +17562,11 @@
       <c r="E265" s="1">
         <v>1264</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F265" s="4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>652</v>
       </c>
@@ -16780,8 +17582,11 @@
       <c r="E266" s="1">
         <v>1265</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F266" s="4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>652</v>
       </c>
@@ -16797,8 +17602,11 @@
       <c r="E267" s="1">
         <v>1266</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F267" s="4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>652</v>
       </c>
@@ -16814,8 +17622,11 @@
       <c r="E268" s="1">
         <v>1267</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F268" s="4">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>652</v>
       </c>
@@ -16831,8 +17642,11 @@
       <c r="E269" s="1">
         <v>1268</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F269" s="4">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>652</v>
       </c>
@@ -16848,8 +17662,11 @@
       <c r="E270" s="1">
         <v>1269</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F270" s="4">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>652</v>
       </c>
@@ -16865,8 +17682,11 @@
       <c r="E271" s="1">
         <v>1270</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F271" s="4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>652</v>
       </c>
@@ -16882,8 +17702,11 @@
       <c r="E272" s="1">
         <v>1271</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F272" s="4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>652</v>
       </c>
@@ -16899,8 +17722,11 @@
       <c r="E273" s="1">
         <v>1272</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F273" s="4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>652</v>
       </c>
@@ -16916,8 +17742,11 @@
       <c r="E274" s="1">
         <v>1273</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F274" s="4">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>652</v>
       </c>
@@ -16933,8 +17762,11 @@
       <c r="E275" s="1">
         <v>1274</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F275" s="4">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>652</v>
       </c>
@@ -16950,8 +17782,11 @@
       <c r="E276" s="1">
         <v>1275</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F276" s="4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>652</v>
       </c>
@@ -16967,8 +17802,11 @@
       <c r="E277" s="1">
         <v>1276</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F277" s="4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>652</v>
       </c>
@@ -16984,8 +17822,11 @@
       <c r="E278" s="1">
         <v>1277</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F278" s="4">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>652</v>
       </c>
@@ -17001,8 +17842,11 @@
       <c r="E279" s="1">
         <v>1278</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F279" s="4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>652</v>
       </c>
@@ -17018,8 +17862,11 @@
       <c r="E280" s="1">
         <v>1279</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F280" s="4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>652</v>
       </c>
@@ -17035,8 +17882,11 @@
       <c r="E281" s="1">
         <v>1280</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F281" s="4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>652</v>
       </c>
@@ -17052,8 +17902,11 @@
       <c r="E282" s="1">
         <v>1281</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F282" s="4">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>652</v>
       </c>
@@ -17069,8 +17922,11 @@
       <c r="E283" s="1">
         <v>1282</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F283" s="4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>869</v>
       </c>
@@ -17086,8 +17942,11 @@
       <c r="E284" s="1">
         <v>1283</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F284" s="4">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>869</v>
       </c>
@@ -17103,8 +17962,11 @@
       <c r="E285" s="1">
         <v>1284</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F285" s="4">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>869</v>
       </c>
@@ -17120,8 +17982,11 @@
       <c r="E286" s="1">
         <v>1285</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F286" s="4">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>869</v>
       </c>
@@ -17137,8 +18002,11 @@
       <c r="E287" s="1">
         <v>1286</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F287" s="4">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>869</v>
       </c>
@@ -17154,8 +18022,11 @@
       <c r="E288" s="1">
         <v>1287</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F288" s="4">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>869</v>
       </c>
@@ -17171,8 +18042,11 @@
       <c r="E289" s="1">
         <v>1288</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F289" s="4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>869</v>
       </c>
@@ -17188,8 +18062,11 @@
       <c r="E290" s="1">
         <v>1289</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F290" s="4">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>869</v>
       </c>
@@ -17205,8 +18082,11 @@
       <c r="E291" s="1">
         <v>1290</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F291" s="4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>869</v>
       </c>
@@ -17222,8 +18102,11 @@
       <c r="E292" s="1">
         <v>1291</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F292" s="4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>869</v>
       </c>
@@ -17239,8 +18122,11 @@
       <c r="E293" s="1">
         <v>1292</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F293" s="4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>869</v>
       </c>
@@ -17256,8 +18142,11 @@
       <c r="E294" s="1">
         <v>1293</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F294" s="4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>869</v>
       </c>
@@ -17273,8 +18162,11 @@
       <c r="E295" s="1">
         <v>1294</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F295" s="4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>869</v>
       </c>
@@ -17290,8 +18182,11 @@
       <c r="E296" s="1">
         <v>1295</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F296" s="4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>869</v>
       </c>
@@ -17307,8 +18202,11 @@
       <c r="E297" s="1">
         <v>1296</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F297" s="4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>869</v>
       </c>
@@ -17324,8 +18222,11 @@
       <c r="E298" s="1">
         <v>1297</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F298" s="4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>869</v>
       </c>
@@ -17341,8 +18242,11 @@
       <c r="E299" s="1">
         <v>1298</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F299" s="4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>869</v>
       </c>
@@ -17358,8 +18262,11 @@
       <c r="E300" s="1">
         <v>1299</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F300" s="4">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>869</v>
       </c>
@@ -17375,8 +18282,11 @@
       <c r="E301" s="1">
         <v>1300</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F301" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>869</v>
       </c>
@@ -17392,8 +18302,11 @@
       <c r="E302" s="1">
         <v>1301</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F302" s="4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>869</v>
       </c>
@@ -17409,8 +18322,11 @@
       <c r="E303" s="1">
         <v>1302</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F303" s="4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>869</v>
       </c>
@@ -17426,8 +18342,11 @@
       <c r="E304" s="1">
         <v>1303</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F304" s="4">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>869</v>
       </c>
@@ -17443,8 +18362,11 @@
       <c r="E305" s="1">
         <v>1304</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F305" s="4">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>869</v>
       </c>
@@ -17460,8 +18382,11 @@
       <c r="E306" s="1">
         <v>1305</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F306" s="4">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>869</v>
       </c>
@@ -17477,8 +18402,11 @@
       <c r="E307" s="1">
         <v>1306</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F307" s="4">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>869</v>
       </c>
@@ -17494,8 +18422,11 @@
       <c r="E308" s="1">
         <v>1307</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F308" s="4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>869</v>
       </c>
@@ -17511,8 +18442,11 @@
       <c r="E309" s="1">
         <v>1308</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F309" s="4">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>869</v>
       </c>
@@ -17528,8 +18462,11 @@
       <c r="E310" s="1">
         <v>1309</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F310" s="4">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>869</v>
       </c>
@@ -17545,8 +18482,11 @@
       <c r="E311" s="1">
         <v>1310</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F311" s="4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>869</v>
       </c>
@@ -17562,8 +18502,11 @@
       <c r="E312" s="1">
         <v>1311</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F312" s="4">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>869</v>
       </c>
@@ -17579,8 +18522,11 @@
       <c r="E313" s="1">
         <v>1312</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F313" s="4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>869</v>
       </c>
@@ -17596,8 +18542,11 @@
       <c r="E314" s="1">
         <v>1313</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F314" s="4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>869</v>
       </c>
@@ -17613,8 +18562,11 @@
       <c r="E315" s="1">
         <v>1314</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F315" s="4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>869</v>
       </c>
@@ -17630,8 +18582,11 @@
       <c r="E316" s="1">
         <v>1315</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F316" s="4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>869</v>
       </c>
@@ -17647,8 +18602,11 @@
       <c r="E317" s="1">
         <v>1316</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F317" s="4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>869</v>
       </c>
@@ -17664,8 +18622,11 @@
       <c r="E318" s="1">
         <v>1317</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F318" s="4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>869</v>
       </c>
@@ -17681,8 +18642,11 @@
       <c r="E319" s="1">
         <v>1318</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F319" s="4">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>869</v>
       </c>
@@ -17698,8 +18662,11 @@
       <c r="E320" s="1">
         <v>1319</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F320" s="4">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>869</v>
       </c>
@@ -17715,8 +18682,11 @@
       <c r="E321" s="1">
         <v>1320</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F321" s="4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>869</v>
       </c>
@@ -17732,8 +18702,11 @@
       <c r="E322" s="1">
         <v>1321</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F322" s="4">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>869</v>
       </c>
@@ -17749,8 +18722,11 @@
       <c r="E323" s="1">
         <v>1322</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F323" s="4">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>869</v>
       </c>
@@ -17766,8 +18742,11 @@
       <c r="E324" s="1">
         <v>1323</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F324" s="4">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>869</v>
       </c>
@@ -17783,8 +18762,11 @@
       <c r="E325" s="1">
         <v>1324</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F325" s="4">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>869</v>
       </c>
@@ -17800,8 +18782,11 @@
       <c r="E326" s="1">
         <v>1325</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F326" s="4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>869</v>
       </c>
@@ -17817,8 +18802,11 @@
       <c r="E327" s="1">
         <v>1326</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F327" s="4">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>869</v>
       </c>
@@ -17834,8 +18822,11 @@
       <c r="E328" s="1">
         <v>1327</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F328" s="4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>869</v>
       </c>
@@ -17851,8 +18842,11 @@
       <c r="E329" s="1">
         <v>1328</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F329" s="4">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>869</v>
       </c>
@@ -17868,8 +18862,11 @@
       <c r="E330" s="1">
         <v>1329</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F330" s="4">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>869</v>
       </c>
@@ -17885,8 +18882,11 @@
       <c r="E331" s="1">
         <v>1330</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F331" s="4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>869</v>
       </c>
@@ -17902,8 +18902,11 @@
       <c r="E332" s="1">
         <v>1331</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F332" s="4">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>869</v>
       </c>
@@ -17919,8 +18922,11 @@
       <c r="E333" s="1">
         <v>1332</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F333" s="4">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>869</v>
       </c>
@@ -17936,8 +18942,11 @@
       <c r="E334" s="1">
         <v>1333</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F334" s="4">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>869</v>
       </c>
@@ -17953,8 +18962,11 @@
       <c r="E335" s="1">
         <v>1334</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F335" s="4">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>869</v>
       </c>
@@ -17970,8 +18982,11 @@
       <c r="E336" s="1">
         <v>1335</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F336" s="4">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>869</v>
       </c>
@@ -17987,8 +19002,11 @@
       <c r="E337" s="1">
         <v>1336</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F337" s="4">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>869</v>
       </c>
@@ -18004,8 +19022,11 @@
       <c r="E338" s="1">
         <v>1337</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F338" s="4">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>869</v>
       </c>
@@ -18021,8 +19042,11 @@
       <c r="E339" s="1">
         <v>1338</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F339" s="4">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>869</v>
       </c>
@@ -18038,8 +19062,11 @@
       <c r="E340" s="1">
         <v>1339</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F340" s="4">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>869</v>
       </c>
@@ -18055,8 +19082,11 @@
       <c r="E341" s="1">
         <v>1340</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F341" s="4">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>869</v>
       </c>
@@ -18072,8 +19102,11 @@
       <c r="E342" s="1">
         <v>1341</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F342" s="4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>869</v>
       </c>
@@ -18089,8 +19122,11 @@
       <c r="E343" s="1">
         <v>1342</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F343" s="4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>869</v>
       </c>
@@ -18106,8 +19142,11 @@
       <c r="E344" s="1">
         <v>1343</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F344" s="4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>869</v>
       </c>
@@ -18123,8 +19162,11 @@
       <c r="E345" s="1">
         <v>1344</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F345" s="4">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>869</v>
       </c>
@@ -18140,8 +19182,11 @@
       <c r="E346" s="1">
         <v>1345</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F346" s="4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>869</v>
       </c>
@@ -18157,8 +19202,11 @@
       <c r="E347" s="1">
         <v>1346</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F347" s="4">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>869</v>
       </c>
@@ -18174,8 +19222,11 @@
       <c r="E348" s="1">
         <v>1347</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F348" s="4">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>869</v>
       </c>
@@ -18191,8 +19242,11 @@
       <c r="E349" s="1">
         <v>1348</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F349" s="4">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>869</v>
       </c>
@@ -18208,8 +19262,11 @@
       <c r="E350" s="1">
         <v>1349</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F350" s="4">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>869</v>
       </c>
@@ -18225,8 +19282,11 @@
       <c r="E351" s="1">
         <v>1350</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F351" s="4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>869</v>
       </c>
@@ -18242,8 +19302,11 @@
       <c r="E352" s="1">
         <v>1351</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F352" s="4">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>869</v>
       </c>
@@ -18259,8 +19322,11 @@
       <c r="E353" s="1">
         <v>1352</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F353" s="4">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>869</v>
       </c>
@@ -18276,8 +19342,11 @@
       <c r="E354" s="1">
         <v>1353</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F354" s="4">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>869</v>
       </c>
@@ -18293,8 +19362,11 @@
       <c r="E355" s="1">
         <v>1354</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F355" s="4">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>869</v>
       </c>
@@ -18310,8 +19382,11 @@
       <c r="E356" s="1">
         <v>1355</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F356" s="4">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>869</v>
       </c>
@@ -18327,8 +19402,11 @@
       <c r="E357" s="1">
         <v>1356</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F357" s="4">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>869</v>
       </c>
@@ -18344,8 +19422,11 @@
       <c r="E358" s="1">
         <v>1357</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F358" s="4">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>869</v>
       </c>
@@ -18361,8 +19442,11 @@
       <c r="E359" s="1">
         <v>1358</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F359" s="4">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>869</v>
       </c>
@@ -18378,8 +19462,11 @@
       <c r="E360" s="1">
         <v>1359</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F360" s="4">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>869</v>
       </c>
@@ -18395,8 +19482,11 @@
       <c r="E361" s="1">
         <v>1360</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F361" s="4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>869</v>
       </c>
@@ -18412,8 +19502,11 @@
       <c r="E362" s="1">
         <v>1361</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F362" s="4">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>869</v>
       </c>
@@ -18429,8 +19522,11 @@
       <c r="E363" s="1">
         <v>1362</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F363" s="4">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>869</v>
       </c>
@@ -18446,8 +19542,11 @@
       <c r="E364" s="1">
         <v>1363</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F364" s="4">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>869</v>
       </c>
@@ -18463,8 +19562,11 @@
       <c r="E365" s="1">
         <v>1364</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F365" s="4">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>869</v>
       </c>
@@ -18480,8 +19582,11 @@
       <c r="E366" s="1">
         <v>1365</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F366" s="4">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>869</v>
       </c>
@@ -18497,8 +19602,11 @@
       <c r="E367" s="1">
         <v>1366</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F367" s="4">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>869</v>
       </c>
@@ -18514,8 +19622,11 @@
       <c r="E368" s="1">
         <v>1367</v>
       </c>
-    </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F368" s="4">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>869</v>
       </c>
@@ -18531,8 +19642,11 @@
       <c r="E369" s="1">
         <v>1368</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F369" s="4">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>869</v>
       </c>
@@ -18548,8 +19662,11 @@
       <c r="E370" s="1">
         <v>1369</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F370" s="4">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>869</v>
       </c>
@@ -18565,8 +19682,11 @@
       <c r="E371" s="1">
         <v>1370</v>
       </c>
-    </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F371" s="4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>869</v>
       </c>
@@ -18582,8 +19702,11 @@
       <c r="E372" s="1">
         <v>1371</v>
       </c>
-    </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F372" s="4">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>869</v>
       </c>
@@ -18599,8 +19722,11 @@
       <c r="E373" s="1">
         <v>1372</v>
       </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F373" s="4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>1142</v>
       </c>
@@ -18616,8 +19742,11 @@
       <c r="E374" s="1">
         <v>1401</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F374" s="4">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>1142</v>
       </c>
@@ -18633,8 +19762,11 @@
       <c r="E375" s="1">
         <v>1402</v>
       </c>
-    </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F375" s="4">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>1142</v>
       </c>
@@ -18650,8 +19782,11 @@
       <c r="E376" s="1">
         <v>1403</v>
       </c>
-    </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F376" s="4">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>1142</v>
       </c>
@@ -18667,8 +19802,11 @@
       <c r="E377" s="1">
         <v>1404</v>
       </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F377" s="4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18684,8 +19822,11 @@
       <c r="E378" s="1">
         <v>1421</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F378" s="4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18701,8 +19842,11 @@
       <c r="E379" s="1">
         <v>1422</v>
       </c>
-    </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F379" s="4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18718,8 +19862,11 @@
       <c r="E380" s="1">
         <v>1423</v>
       </c>
-    </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F380" s="4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18735,8 +19882,11 @@
       <c r="E381" s="1">
         <v>1424</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F381" s="4">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18752,8 +19902,11 @@
       <c r="E382" s="1">
         <v>1425</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F382" s="4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18769,8 +19922,11 @@
       <c r="E383" s="1">
         <v>1426</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F383" s="4">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18786,8 +19942,11 @@
       <c r="E384" s="1">
         <v>1427</v>
       </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F384" s="4">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18803,8 +19962,11 @@
       <c r="E385" s="1">
         <v>1428</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F385" s="4">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18820,8 +19982,11 @@
       <c r="E386" s="1">
         <v>1429</v>
       </c>
-    </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F386" s="4">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18837,8 +20002,11 @@
       <c r="E387" s="1">
         <v>1430</v>
       </c>
-    </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F387" s="4">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18854,8 +20022,11 @@
       <c r="E388" s="1">
         <v>1431</v>
       </c>
-    </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F388" s="4">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18871,8 +20042,11 @@
       <c r="E389" s="1">
         <v>1432</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F389" s="4">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18888,8 +20062,11 @@
       <c r="E390" s="1">
         <v>1433</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F390" s="4">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18905,8 +20082,11 @@
       <c r="E391" s="1">
         <v>1434</v>
       </c>
-    </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F391" s="4">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>1155</v>
       </c>
@@ -18922,8 +20102,11 @@
       <c r="E392" s="1">
         <v>1435</v>
       </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F392" s="4">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>1201</v>
       </c>
@@ -18938,6 +20121,9 @@
       </c>
       <c r="E393" s="1">
         <v>1451</v>
+      </c>
+      <c r="F393" s="4">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
